--- a/data/trans_bre/P23_R2-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/P23_R2-Dificultad-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-23.10796152590003</v>
+        <v>-23.04565729415005</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-17.562126336503</v>
+        <v>-17.74085660060531</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-15.77870807683681</v>
+        <v>-15.85280850627038</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-20.38212835770224</v>
+        <v>-20.10136495665526</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.5225851827746546</v>
+        <v>-0.5234288262135912</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.376641838791745</v>
+        <v>-0.3755225475494893</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.3475987521715653</v>
+        <v>-0.3516557541865377</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.4833890489103136</v>
+        <v>-0.4831598865585981</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-12.97078432413178</v>
+        <v>-12.26301630317428</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-9.221406008915212</v>
+        <v>-9.296745885322302</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-7.826478084474818</v>
+        <v>-7.926038159761113</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-9.185166093319975</v>
+        <v>-9.265800413106318</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.3438413972176018</v>
+        <v>-0.3294490617771045</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.2160937815537669</v>
+        <v>-0.2183121752191705</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>-0.1899319716909054</v>
+        <v>-0.1938777972810393</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.2707549811735394</v>
+        <v>-0.2612948658285417</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-9.665651904270483</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-6.588609554805059</v>
+        <v>-6.588609554805055</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.4156544755632007</v>
@@ -749,7 +749,7 @@
         <v>-0.2702546304324384</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.2508320484293817</v>
+        <v>-0.2508320484293816</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-22.24384831610623</v>
+        <v>-22.01394159400082</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-16.50903389635431</v>
+        <v>-16.09166357267986</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-13.72643957267405</v>
+        <v>-13.81438723455469</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-10.32312798241738</v>
+        <v>-10.54966400530668</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4899411617057191</v>
+        <v>-0.4828065672862959</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4010295461152455</v>
+        <v>-0.3992322911801011</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3623863394308872</v>
+        <v>-0.3686838888360209</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3583310303487829</v>
+        <v>-0.3652457569955788</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>-14.25316935152969</v>
+        <v>-13.91840311794368</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>-8.045915696477003</v>
+        <v>-7.94952876033438</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>-5.099234121344482</v>
+        <v>-5.309780555964854</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-2.778946121044468</v>
+        <v>-2.960024481827596</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.3459340629988312</v>
+        <v>-0.3331419288765227</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.2193689159048213</v>
+        <v>-0.219663329927903</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.1516239863076589</v>
+        <v>-0.1611038163084496</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.1182949635239147</v>
+        <v>-0.124196059964107</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-5.83263384524512</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-6.297155699400713</v>
+        <v>-6.297155699400708</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.3742050890292112</v>
@@ -849,7 +849,7 @@
         <v>-0.2146244816231117</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.2674766164079234</v>
+        <v>-0.2674766164079232</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-18.13958959643518</v>
+        <v>-18.21086205798775</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-10.04846103360317</v>
+        <v>-10.53251275974948</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-9.993324119691268</v>
+        <v>-9.696347912513044</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-10.00836930555404</v>
+        <v>-9.837118277185239</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4508231856857991</v>
+        <v>-0.4569567244686379</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3100595951315813</v>
+        <v>-0.3209995914539886</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3459417864338987</v>
+        <v>-0.3379958602766568</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3833537043217791</v>
+        <v>-0.3858925238691264</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-10.06836783969203</v>
+        <v>-10.52488672384979</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.635432107478021</v>
+        <v>-1.488501044960609</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.334456394698661</v>
+        <v>-1.110497825207274</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-2.578021169457706</v>
+        <v>-2.888685102281345</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.2815188313908072</v>
+        <v>-0.2892033579726841</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.05506412608934366</v>
+        <v>-0.05303683076313541</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.0551180375616712</v>
+        <v>-0.04294100685518849</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.1227748057074954</v>
+        <v>-0.1356872620537185</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>-6.366144151601155</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-3.493579715305692</v>
+        <v>-3.493579715305689</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.1844934241577305</v>
@@ -949,7 +949,7 @@
         <v>-0.2540417295498822</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.1672557792403782</v>
+        <v>-0.167255779240378</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-13.2295682062056</v>
+        <v>-13.27207575876571</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-11.64959044624779</v>
+        <v>-11.88222467216648</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-11.48914304812019</v>
+        <v>-11.96710770450276</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-6.997999630381605</v>
+        <v>-7.006559018538966</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3516254456483538</v>
+        <v>-0.3558202533656663</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3712256595480258</v>
+        <v>-0.3713111363369422</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4249209145026366</v>
+        <v>-0.4188710024156014</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3056455247418244</v>
+        <v>-0.3094811898835336</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.5424290387008461</v>
+        <v>0.2022643751561254</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04520094909688338</v>
+        <v>0.1563174544634214</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>-0.2276445765007734</v>
+        <v>-1.162246268601881</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6185990209458646</v>
+        <v>0.2492580737776672</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.01880799088498362</v>
+        <v>0.006029965352314553</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.001511925399152603</v>
+        <v>0.008104244641915136</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>-0.01965516677171529</v>
+        <v>-0.04573905539281787</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.02805740945912333</v>
+        <v>0.01464076884257945</v>
       </c>
     </row>
     <row r="16">
@@ -1049,7 +1049,7 @@
         <v>-0.2498278087070349</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.2559575105030569</v>
+        <v>-0.2559575105030568</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-17.62504249996702</v>
+        <v>-17.69766850122739</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-12.01248333315831</v>
+        <v>-12.12653018392143</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-10.96070728303888</v>
+        <v>-11.02962897504368</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-8.546432612380688</v>
+        <v>-8.444892410099602</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4308662059434706</v>
+        <v>-0.4300566068762436</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3190430736168742</v>
+        <v>-0.3175037908655775</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3044506309172434</v>
+        <v>-0.3074224257902137</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.3182777367462588</v>
+        <v>-0.3159751336108496</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-13.13701586554563</v>
+        <v>-13.21445205486958</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-7.353456743786449</v>
+        <v>-7.543534640270646</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-6.674057354996258</v>
+        <v>-6.542693842850343</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-4.587288242100625</v>
+        <v>-4.666513193865536</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.3395406587021836</v>
+        <v>-0.3406032672930306</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.2075152803143019</v>
+        <v>-0.2093298533168323</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.1973247661671443</v>
+        <v>-0.196126075945918</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.1872325162735199</v>
+        <v>-0.1911060436041865</v>
       </c>
     </row>
     <row r="19">
